--- a/Document/P-TARI.MCMIS-系統時程規劃1021.xlsx
+++ b/Document/P-TARI.MCMIS-系統時程規劃1021.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\TARI.MCMIS\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="行動作物生產管理APP " sheetId="1" r:id="rId4"/>
-    <sheet name="行動版肥料商品查詢系統" sheetId="2" r:id="rId5"/>
-    <sheet name="植物保護網絡資訊系統" sheetId="3" r:id="rId6"/>
-    <sheet name="工作表11" sheetId="4" r:id="rId7"/>
+    <sheet name="行動作物生產管理APP " sheetId="1" r:id="rId1"/>
+    <sheet name="行動版肥料商品查詢系統" sheetId="2" r:id="rId2"/>
+    <sheet name="植物保護網絡資訊系統" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表11" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t xml:space="preserve">行動作物生產管理APP </t>
   </si>
@@ -165,6 +173,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•使用者帳號</t>
     </r>
@@ -175,6 +185,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•群組設定</t>
     </r>
@@ -185,6 +197,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•功能頁籤權限設定</t>
     </r>
@@ -198,6 +212,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•病蟲害基本資料</t>
     </r>
@@ -208,6 +224,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•疫情通報設定</t>
     </r>
@@ -218,6 +236,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•有害生物與天敵資料庫名彙資料轉入</t>
     </r>
@@ -228,6 +248,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•網格化氣象資料介接</t>
     </r>
@@ -238,6 +260,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•病蟲害防治農藥商品查詢連結</t>
     </r>
@@ -248,6 +272,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•公開病蟲害資料轉出</t>
     </r>
@@ -264,6 +290,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•病蟲害調查記錄</t>
     </r>
@@ -277,6 +305,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•資料公開權限設定</t>
     </r>
@@ -287,6 +317,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•植物疫情業務資料轉出</t>
     </r>
@@ -300,6 +332,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•病蟲害調查點位與氣象連結</t>
     </r>
@@ -310,6 +344,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•病蟲害調查點位與農地作物分布圖資套疊維護</t>
     </r>
@@ -320,6 +356,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•病蟲害查詢</t>
     </r>
@@ -330,6 +368,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•病蟲害統計</t>
     </r>
@@ -346,6 +386,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•發表文章</t>
     </r>
@@ -356,6 +398,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•個人化資訊</t>
     </r>
@@ -372,6 +416,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•文章討論</t>
     </r>
@@ -382,6 +428,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•搜尋功能</t>
     </r>
@@ -395,6 +443,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">•論壇管理    </t>
     </r>
@@ -405,6 +455,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•目錄管理</t>
     </r>
@@ -415,6 +467,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>•主題管理</t>
     </r>
@@ -425,6 +479,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">•群組管理    </t>
     </r>
@@ -448,11 +504,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -460,43 +516,58 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="9"/>
       <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="10">
@@ -715,9 +786,7 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -727,9 +796,7 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -894,243 +961,308 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="70">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffc0504d"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0070c0"/>
-      <rgbColor rgb="ffb4cc82"/>
-      <rgbColor rgb="fff9b074"/>
-      <rgbColor rgb="ff4d5d2c"/>
-      <rgbColor rgb="ffd6e3bc"/>
-      <rgbColor rgb="ff92d050"/>
-      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFC0504D"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FFB4CC82"/>
+      <rgbColor rgb="FFF9B074"/>
+      <rgbColor rgb="FF4D5D2C"/>
+      <rgbColor rgb="FFD6E3BC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office 佈景主題">
       <a:dk1>
@@ -1256,7 +1388,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1265,7 +1397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1274,7 +1406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1348,7 +1480,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1356,7 +1488,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1375,7 +1507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1405,7 +1537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1431,7 +1563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1457,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1483,7 +1615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1509,7 +1641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1535,7 +1667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1587,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1613,7 +1745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1626,9 +1758,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1643,7 +1781,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1651,7 +1789,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1670,7 +1808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1696,7 +1834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1722,7 +1860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1748,7 +1886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1774,7 +1912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1800,7 +1938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1826,7 +1964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1852,7 +1990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1878,7 +2016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1904,7 +2042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1917,9 +2055,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1933,7 +2077,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1952,7 +2096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1982,7 +2126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2008,7 +2152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2034,7 +2178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2060,7 +2204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2086,7 +2230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2112,7 +2256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2138,7 +2282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2164,7 +2308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2190,7 +2334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2203,500 +2347,509 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.2891" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.4453" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.2891" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8672" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" customHeight="1">
+    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="16.8" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" t="s" s="8">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="16.8" customHeight="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="67">
         <v>42669</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="4" ht="16.8" customHeight="1">
-      <c r="A4" s="9">
+    <row r="4" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" t="s" s="11">
+      <c r="B4" s="44"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="67">
         <v>42669</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="5" ht="16.8" customHeight="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" t="s" s="11">
+      <c r="B5" s="42"/>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="67">
         <v>42669</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="6" ht="16.8" customHeight="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="67">
         <v>42676</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="7" ht="16.8" customHeight="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" t="s" s="11">
+      <c r="B7" s="42"/>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="67">
         <v>42676</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="8" ht="16.8" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="15"/>
-      <c r="C8" t="s" s="11">
+    <row r="8" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="9" ht="16.8" customHeight="1">
-      <c r="A9" s="9">
+    <row r="9" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="16">
+      <c r="B9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s" s="17">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="68">
         <v>42669</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="10" ht="16.8" customHeight="1">
-      <c r="A10" s="9">
+    <row r="10" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" t="s" s="17">
+      <c r="B10" s="44"/>
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="68">
         <v>42669</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="11" ht="16.8" customHeight="1">
-      <c r="A11" s="9">
+    <row r="11" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" t="s" s="17">
+      <c r="B11" s="42"/>
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="68">
         <v>42669</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="12" ht="16.8" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="15"/>
-      <c r="C12" t="s" s="11">
+    <row r="12" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="67">
         <v>42669</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="13" ht="16.8" customHeight="1">
-      <c r="A13" s="9">
+    <row r="13" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="16">
+      <c r="B13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s" s="17">
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="68">
         <v>42669</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="14" ht="16.8" customHeight="1">
-      <c r="A14" s="9">
+    <row r="14" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" t="s" s="17">
+      <c r="B14" s="44"/>
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="68">
         <v>42669</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="15" ht="16.8" customHeight="1">
-      <c r="A15" s="9">
+    <row r="15" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" t="s" s="17">
+      <c r="B15" s="44"/>
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="68">
         <v>42669</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="16" ht="16.8" customHeight="1">
-      <c r="A16" s="9">
+    <row r="16" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" t="s" s="17">
+      <c r="B16" s="44"/>
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="68">
         <v>42676</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="17" ht="16.8" customHeight="1">
-      <c r="A17" s="9">
+    <row r="17" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" t="s" s="19">
+      <c r="B17" s="44"/>
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="69">
         <v>42676</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="69">
         <v>42729</v>
       </c>
     </row>
-    <row r="18" ht="16.8" customHeight="1">
-      <c r="A18" s="9">
+    <row r="18" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" t="s" s="19">
+      <c r="B18" s="44"/>
+      <c r="C18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="69">
         <v>42676</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="69">
         <v>42729</v>
       </c>
     </row>
-    <row r="19" ht="16.8" customHeight="1">
-      <c r="A19" s="9">
+    <row r="19" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" t="s" s="19">
+      <c r="B19" s="44"/>
+      <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="69">
         <v>42676</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="69">
         <v>42729</v>
       </c>
     </row>
-    <row r="20" ht="16.8" customHeight="1">
-      <c r="A20" s="9">
+    <row r="20" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" t="s" s="17">
+      <c r="B20" s="44"/>
+      <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="68">
         <v>42669</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="21" ht="16.8" customHeight="1">
-      <c r="A21" s="9">
+    <row r="21" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" t="s" s="11">
+      <c r="B21" s="42"/>
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="67">
         <v>42676</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="67">
         <v>42729</v>
       </c>
     </row>
-    <row r="22" ht="16.8" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="15"/>
-      <c r="C22" t="s" s="11">
+    <row r="22" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
+      <c r="D22" s="67"/>
+      <c r="E22" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="23" ht="16.8" customHeight="1">
-      <c r="A23" s="9">
+    <row r="23" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" t="s" s="16">
+      <c r="B23" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s" s="17">
+      <c r="C23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="68">
         <v>42669</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="24" ht="16.8" customHeight="1">
-      <c r="A24" s="9">
+    <row r="24" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" t="s" s="17">
+      <c r="B24" s="44"/>
+      <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="68">
         <v>42669</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="25" ht="16.8" customHeight="1">
-      <c r="A25" s="9">
+    <row r="25" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" t="s" s="17">
+      <c r="B25" s="42"/>
+      <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="68">
         <v>42676</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="68">
         <v>42729</v>
       </c>
     </row>
-    <row r="26" ht="16.8" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="15"/>
-      <c r="C26" t="s" s="11">
+    <row r="26" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
+      <c r="D26" s="67"/>
+      <c r="E26" s="67">
         <v>42699</v>
       </c>
     </row>
-    <row r="27" ht="16.8" customHeight="1">
-      <c r="A27" s="9">
+    <row r="27" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" t="s" s="16">
+      <c r="B27" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s" s="19">
+      <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="69">
         <v>42669</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="69">
         <v>42699</v>
       </c>
     </row>
-    <row r="28" ht="16.8" customHeight="1">
-      <c r="A28" s="9">
+    <row r="28" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" t="s" s="19">
+      <c r="B28" s="44"/>
+      <c r="C28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="69">
         <v>42676</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="69">
         <v>42729</v>
       </c>
     </row>
-    <row r="29" ht="16.8" customHeight="1">
-      <c r="A29" s="9">
+    <row r="29" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" t="s" s="19">
+      <c r="B29" s="44"/>
+      <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="69">
         <v>42676</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="69">
         <v>42729</v>
       </c>
     </row>
-    <row r="30" ht="16.8" customHeight="1">
-      <c r="A30" s="9">
+    <row r="30" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" t="s" s="19">
+      <c r="B30" s="42"/>
+      <c r="C30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="69">
         <v>42676</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="69">
         <v>42729</v>
       </c>
     </row>
-    <row r="31" ht="16.8" customHeight="1">
-      <c r="A31" s="9">
+    <row r="31" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31" t="s" s="21">
+      <c r="B31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="s" s="17">
+      <c r="C31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="68">
         <v>42669</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="68">
         <v>42699</v>
       </c>
     </row>
-    <row r="32" ht="17.5" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" ht="17" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+    <row r="32" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2708,8 +2861,9 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B13:B21"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2717,127 +2871,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="28" customWidth="1"/>
-    <col min="2" max="2" width="30.2891" style="28" customWidth="1"/>
-    <col min="3" max="3" width="35.2891" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.2891" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10" style="28" customWidth="1"/>
-    <col min="6" max="256" width="9" style="28" customWidth="1"/>
+    <col min="1" max="1" width="9" style="18" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10" style="18" customWidth="1"/>
+    <col min="6" max="256" width="9" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" customHeight="1">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" ht="16.8" customHeight="1">
-      <c r="A2" t="s" s="30">
+    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" t="s" s="30">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="21">
+      <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s" s="17">
+      <c r="C3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="21">
         <v>42669</v>
       </c>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" ht="16.8" customHeight="1">
-      <c r="A4" s="9">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="21">
+      <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="32">
+      <c r="C4" s="22"/>
+      <c r="D4" s="21">
         <v>42669</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="21">
         <v>42699</v>
       </c>
     </row>
-    <row r="5" ht="16.8" customHeight="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="32">
+      <c r="C5" s="22"/>
+      <c r="D5" s="21">
         <v>42669</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="21">
         <v>42699</v>
       </c>
     </row>
-    <row r="6" ht="17.5" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+    <row r="6" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2845,519 +3000,520 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="35" customWidth="1"/>
-    <col min="2" max="2" width="16.8672" style="35" customWidth="1"/>
-    <col min="3" max="3" width="43.2891" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.44531" style="35" customWidth="1"/>
-    <col min="5" max="5" width="11.7344" style="35" customWidth="1"/>
-    <col min="6" max="256" width="9" style="35" customWidth="1"/>
+    <col min="1" max="1" width="9" style="24" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="43.25" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="24" customWidth="1"/>
+    <col min="6" max="256" width="9" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" customHeight="1">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" ht="16.8" customHeight="1">
-      <c r="A2" t="s" s="36">
+    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" t="s" s="36">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="38">
+      <c r="E2" s="56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="16.8" customHeight="1">
-      <c r="A3" t="s" s="36">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" ht="16.8" customHeight="1">
-      <c r="A4" s="40">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="41">
+      <c r="B4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s" s="42">
+      <c r="C4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="28">
         <v>42669</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="5" ht="16.8" customHeight="1">
-      <c r="A5" s="40">
+    <row r="5" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" t="s" s="42">
+      <c r="B5" s="51"/>
+      <c r="C5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="28">
         <v>42669</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="6" ht="16.8" customHeight="1">
-      <c r="A6" s="40">
+    <row r="6" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" t="s" s="42">
+      <c r="B6" s="51"/>
+      <c r="C6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="28">
         <v>42669</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="7" ht="16.8" customHeight="1">
-      <c r="A7" s="40">
+    <row r="7" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" t="s" s="41">
+      <c r="B7" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s" s="42">
+      <c r="C7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="28">
         <v>42676</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="8" ht="16.8" customHeight="1">
-      <c r="A8" s="40">
+    <row r="8" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" t="s" s="42">
+      <c r="B8" s="51"/>
+      <c r="C8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="28">
         <v>42669</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="9" ht="16.8" customHeight="1">
-      <c r="A9" s="40">
+    <row r="9" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" t="s" s="42">
+      <c r="B9" s="51"/>
+      <c r="C9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="28">
         <v>42669</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="10" ht="16.8" customHeight="1">
-      <c r="A10" s="40">
+    <row r="10" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" t="s" s="42">
+      <c r="B10" s="51"/>
+      <c r="C10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="28">
         <v>42669</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="11" ht="16.8" customHeight="1">
-      <c r="A11" s="40">
+    <row r="11" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" t="s" s="42">
+      <c r="B11" s="51"/>
+      <c r="C11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="28">
         <v>42669</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="12" ht="16.8" customHeight="1">
-      <c r="A12" s="40">
+    <row r="12" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" t="s" s="42">
+      <c r="B12" s="51"/>
+      <c r="C12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="28">
         <v>42676</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="13" ht="16.8" customHeight="1">
-      <c r="A13" t="s" s="36">
+    <row r="13" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-    </row>
-    <row r="14" ht="16.8" customHeight="1">
-      <c r="A14" s="40">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
         <v>10</v>
       </c>
-      <c r="B14" t="s" s="41">
+      <c r="B14" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s" s="42">
+      <c r="C14" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="28">
         <v>42676</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="15" ht="16.8" customHeight="1">
-      <c r="A15" s="40">
+    <row r="15" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" t="s" s="42">
+      <c r="B15" s="51"/>
+      <c r="C15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="28">
         <v>42676</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="16" ht="16.8" customHeight="1">
-      <c r="A16" s="40">
+    <row r="16" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>12</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" t="s" s="42">
+      <c r="B16" s="51"/>
+      <c r="C16" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="28">
         <v>42676</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="17" ht="16.8" customHeight="1">
-      <c r="A17" s="40">
+    <row r="17" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>13</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" t="s" s="42">
+      <c r="B17" s="51"/>
+      <c r="C17" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="28">
         <v>42676</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="28">
         <v>42699</v>
       </c>
     </row>
-    <row r="18" ht="16.8" customHeight="1">
-      <c r="A18" s="40">
+    <row r="18" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>14</v>
       </c>
-      <c r="B18" t="s" s="41">
+      <c r="B18" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s" s="42">
+      <c r="C18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="28">
         <v>42676</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="19" ht="33" customHeight="1">
-      <c r="A19" s="40">
+    <row r="19" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>15</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" t="s" s="42">
+      <c r="B19" s="51"/>
+      <c r="C19" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="28">
         <v>42676</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="20" ht="16.8" customHeight="1">
-      <c r="A20" s="40">
+    <row r="20" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>16</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" t="s" s="42">
+      <c r="B20" s="51"/>
+      <c r="C20" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="28">
         <v>42676</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="21" ht="16.8" customHeight="1">
-      <c r="A21" s="40">
+    <row r="21" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>17</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" t="s" s="42">
+      <c r="B21" s="51"/>
+      <c r="C21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="28">
         <v>42676</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="22" ht="16.8" customHeight="1">
-      <c r="A22" t="s" s="36">
+    <row r="22" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-    </row>
-    <row r="23" ht="16.8" customHeight="1">
-      <c r="A23" s="40">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
         <v>18</v>
       </c>
-      <c r="B23" t="s" s="41">
+      <c r="B23" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s" s="42">
+      <c r="C23" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="28">
         <v>42678</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="24" ht="16.8" customHeight="1">
-      <c r="A24" s="40">
+    <row r="24" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <v>19</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" t="s" s="42">
+      <c r="B24" s="51"/>
+      <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="28">
         <v>42678</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="25" ht="16.8" customHeight="1">
-      <c r="A25" s="40">
+    <row r="25" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
         <v>20</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" t="s" s="42">
+      <c r="B25" s="51"/>
+      <c r="C25" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="28">
         <v>42678</v>
       </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" ht="16.8" customHeight="1">
-      <c r="A26" s="40">
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <v>21</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="43">
+      <c r="B26" s="51"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="28">
         <v>42678</v>
       </c>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" ht="16.8" customHeight="1">
-      <c r="A27" s="40">
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <v>22</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="43">
+      <c r="B27" s="51"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="28">
         <v>42678</v>
       </c>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" ht="16.8" customHeight="1">
-      <c r="A28" s="40">
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>23</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="43">
+      <c r="B28" s="51"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="28">
         <v>42678</v>
       </c>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" ht="16.8" customHeight="1">
-      <c r="A29" s="40">
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
         <v>24</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" t="s" s="42">
+      <c r="B29" s="51"/>
+      <c r="C29" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="28">
         <v>42678</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="30" ht="16.8" customHeight="1">
-      <c r="A30" s="40">
+    <row r="30" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>25</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" t="s" s="42">
+      <c r="B30" s="51"/>
+      <c r="C30" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="28">
         <v>42678</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="31" ht="16.8" customHeight="1">
-      <c r="A31" s="40">
+    <row r="31" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
         <v>26</v>
       </c>
-      <c r="B31" t="s" s="41">
+      <c r="B31" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s" s="42">
+      <c r="C31" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="28">
         <v>42678</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="32" ht="16.8" customHeight="1">
-      <c r="A32" s="40">
+    <row r="32" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
         <v>27</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" t="s" s="42">
+      <c r="B32" s="51"/>
+      <c r="C32" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="28">
         <v>42678</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="33" ht="16.8" customHeight="1">
-      <c r="A33" s="40">
+    <row r="33" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
         <v>28</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" t="s" s="42">
+      <c r="B33" s="51"/>
+      <c r="C33" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="28">
         <v>42678</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="28">
         <v>42729</v>
       </c>
     </row>
-    <row r="34" ht="16.8" customHeight="1">
-      <c r="A34" s="40">
+    <row r="34" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" t="s" s="42">
+      <c r="B34" s="51"/>
+      <c r="C34" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="28">
         <v>42678</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="28">
         <v>42729</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3365,382 +3521,382 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="16.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.8672" style="48" customWidth="1"/>
-    <col min="3" max="3" width="43.2891" style="48" customWidth="1"/>
-    <col min="4" max="4" width="12.4453" style="48" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="48" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="48" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="32" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="43.25" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="32" customWidth="1"/>
+    <col min="5" max="256" width="8.75" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" ht="18.6" customHeight="1">
-      <c r="A2" t="s" s="50">
+    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" t="s" s="53">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s" s="53">
+      <c r="E2" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="18.6" customHeight="1">
-      <c r="A3" s="54">
+    <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="55">
+      <c r="B3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="56">
+      <c r="C3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" ht="18.6" customHeight="1">
-      <c r="A4" s="54">
+      <c r="D3" s="29"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" t="s" s="56">
+      <c r="B4" s="62"/>
+      <c r="C4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" ht="18.6" customHeight="1">
-      <c r="A5" s="54">
+      <c r="D4" s="29"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" t="s" s="56">
+      <c r="B5" s="63"/>
+      <c r="C5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" ht="18.6" customHeight="1">
-      <c r="A6" s="59">
+      <c r="D5" s="29"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="60">
+      <c r="B6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s" s="61">
+      <c r="C6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" ht="18.6" customHeight="1">
-      <c r="A7" s="59">
+      <c r="D6" s="29"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" t="s" s="61">
+      <c r="B7" s="60"/>
+      <c r="C7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" ht="18.6" customHeight="1">
-      <c r="A8" s="54">
+      <c r="D7" s="29"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="55">
+      <c r="B8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="56">
+      <c r="C8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s" s="41">
+      <c r="D8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" ht="18.6" customHeight="1">
-      <c r="A9" s="54">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" t="s" s="56">
+      <c r="B9" s="62"/>
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s" s="41">
+      <c r="D9" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" ht="18.6" customHeight="1">
-      <c r="A10" s="54">
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" t="s" s="56">
+      <c r="B10" s="63"/>
+      <c r="C10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s" s="41">
+      <c r="D10" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" ht="18.6" customHeight="1">
-      <c r="A11" s="59">
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="60">
+      <c r="B11" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s" s="61">
+      <c r="C11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s" s="41">
+      <c r="D11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" ht="18.6" customHeight="1">
-      <c r="A12" s="59">
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <v>10</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" t="s" s="61">
+      <c r="B12" s="59"/>
+      <c r="C12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="41">
+      <c r="D12" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" ht="18.6" customHeight="1">
-      <c r="A13" s="59">
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
         <v>11</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" t="s" s="61">
+      <c r="B13" s="59"/>
+      <c r="C13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s" s="41">
+      <c r="D13" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" ht="18.6" customHeight="1">
-      <c r="A14" s="59">
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" t="s" s="64">
+      <c r="B14" s="59"/>
+      <c r="C14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s" s="41">
+      <c r="D14" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" ht="18.6" customHeight="1">
-      <c r="A15" s="59">
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
         <v>13</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" t="s" s="61">
+      <c r="B15" s="59"/>
+      <c r="C15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s" s="41">
+      <c r="D15" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" ht="18.6" customHeight="1">
-      <c r="A16" s="59">
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
         <v>14</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" t="s" s="61">
+      <c r="B16" s="59"/>
+      <c r="C16" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s" s="41">
+      <c r="D16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" ht="18.6" customHeight="1">
-      <c r="A17" s="59">
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" t="s" s="61">
+      <c r="B17" s="59"/>
+      <c r="C17" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s" s="41">
+      <c r="D17" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" ht="18.6" customHeight="1">
-      <c r="A18" s="59">
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
         <v>16</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" t="s" s="64">
+      <c r="B18" s="59"/>
+      <c r="C18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s" s="41">
+      <c r="D18" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" ht="18.6" customHeight="1">
-      <c r="A19" s="59">
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
         <v>17</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" t="s" s="64">
+      <c r="B19" s="60"/>
+      <c r="C19" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s" s="41">
+      <c r="D19" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" ht="18.6" customHeight="1">
-      <c r="A20" s="54">
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
         <v>18</v>
       </c>
-      <c r="B20" t="s" s="55">
+      <c r="B20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s" s="56">
+      <c r="C20" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s" s="41">
+      <c r="D20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="40"/>
-    </row>
-    <row r="21" ht="18.6" customHeight="1">
-      <c r="A21" s="54">
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>19</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" t="s" s="56">
+      <c r="B21" s="62"/>
+      <c r="C21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D21" t="s" s="41">
+      <c r="D21" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="40"/>
-    </row>
-    <row r="22" ht="18.6" customHeight="1">
-      <c r="A22" s="54">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" t="s" s="56">
+      <c r="B22" s="63"/>
+      <c r="C22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s" s="41">
+      <c r="D22" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" ht="18.6" customHeight="1">
-      <c r="A23" s="59">
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="60">
+      <c r="B23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s" s="61">
+      <c r="C23" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s" s="41">
+      <c r="D23" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" ht="18.6" customHeight="1">
-      <c r="A24" s="59">
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>22</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" t="s" s="61">
+      <c r="B24" s="59"/>
+      <c r="C24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s" s="41">
+      <c r="D24" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="40"/>
-    </row>
-    <row r="25" ht="18.6" customHeight="1">
-      <c r="A25" s="59">
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
         <v>23</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" t="s" s="61">
+      <c r="B25" s="59"/>
+      <c r="C25" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s" s="41">
+      <c r="D25" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="40"/>
-    </row>
-    <row r="26" ht="18.6" customHeight="1">
-      <c r="A26" s="59">
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
         <v>24</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" t="s" s="61">
+      <c r="B26" s="60"/>
+      <c r="C26" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s" s="41">
+      <c r="D26" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" ht="18.6" customHeight="1">
-      <c r="A27" s="54">
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B27" t="s" s="65">
+      <c r="B27" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C27" t="s" s="56">
+      <c r="C27" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s" s="41">
+      <c r="D27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B23:B26"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Document/P-TARI.MCMIS-系統時程規劃1021.xlsx
+++ b/Document/P-TARI.MCMIS-系統時程規劃1021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t xml:space="preserve">行動作物生產管理APP </t>
   </si>
@@ -500,15 +500,19 @@
   <si>
     <t>病蟲害資訊查詢(公用)</t>
   </si>
+  <si>
+    <t>常用肥料設定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -569,8 +573,16 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +635,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -965,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1089,6 +1107,15 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,29 +1143,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,22 +1194,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2368,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2390,11 +2414,11 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2406,16 +2430,16 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="41">
         <v>42669</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="41">
         <v>42699</v>
       </c>
     </row>
@@ -2423,14 +2447,14 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="41">
         <v>42669</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="41">
         <v>42699</v>
       </c>
     </row>
@@ -2438,14 +2462,14 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="71">
         <v>42669</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="71">
         <v>42699</v>
       </c>
     </row>
@@ -2453,16 +2477,16 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="41">
         <v>42676</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="41">
         <v>42699</v>
       </c>
     </row>
@@ -2470,14 +2494,14 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="41">
         <v>42676</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="41">
         <v>42699</v>
       </c>
     </row>
@@ -2487,8 +2511,8 @@
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41">
         <v>42699</v>
       </c>
     </row>
@@ -2496,16 +2520,16 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="42">
         <v>42669</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2513,14 +2537,14 @@
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="42">
         <v>42669</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2528,14 +2552,14 @@
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="42">
         <v>42669</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2545,10 +2569,10 @@
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="41">
         <v>42669</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="41">
         <v>42699</v>
       </c>
     </row>
@@ -2556,16 +2580,16 @@
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="42">
         <v>42669</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2573,14 +2597,14 @@
       <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="42">
         <v>42669</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2588,14 +2612,14 @@
       <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="42">
         <v>42669</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2603,14 +2627,14 @@
       <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="42">
         <v>42676</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2618,14 +2642,14 @@
       <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="43">
         <v>42676</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="43">
         <v>42729</v>
       </c>
     </row>
@@ -2633,14 +2657,14 @@
       <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="43">
         <v>42676</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="43">
         <v>42729</v>
       </c>
     </row>
@@ -2648,14 +2672,14 @@
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="43">
         <v>42676</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="43">
         <v>42729</v>
       </c>
     </row>
@@ -2663,14 +2687,14 @@
       <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="42">
         <v>42669</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2678,14 +2702,14 @@
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="41">
         <v>42676</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="41">
         <v>42729</v>
       </c>
     </row>
@@ -2695,8 +2719,8 @@
       <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41">
         <v>42699</v>
       </c>
     </row>
@@ -2704,16 +2728,16 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="46" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="68">
+        <v>86</v>
+      </c>
+      <c r="D23" s="42">
         <v>42669</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2721,14 +2745,14 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="42">
         <v>42669</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2736,14 +2760,14 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="42">
         <v>42676</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="42">
         <v>42729</v>
       </c>
     </row>
@@ -2753,8 +2777,8 @@
       <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67">
+      <c r="D26" s="41"/>
+      <c r="E26" s="41">
         <v>42699</v>
       </c>
     </row>
@@ -2762,16 +2786,16 @@
       <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="43">
         <v>42669</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="43">
         <v>42699</v>
       </c>
     </row>
@@ -2779,14 +2803,14 @@
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="43">
         <v>42676</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="43">
         <v>42729</v>
       </c>
     </row>
@@ -2794,14 +2818,14 @@
       <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="43">
         <v>42676</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="43">
         <v>42729</v>
       </c>
     </row>
@@ -2809,14 +2833,14 @@
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="43">
         <v>42676</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="43">
         <v>42729</v>
       </c>
     </row>
@@ -2830,10 +2854,10 @@
       <c r="C31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="68">
+      <c r="D31" s="42">
         <v>42669</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="42">
         <v>42699</v>
       </c>
     </row>
@@ -2894,11 +2918,11 @@
       <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
@@ -3023,32 +3047,32 @@
       <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="53" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -3065,7 +3089,7 @@
       <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="27" t="s">
         <v>49</v>
       </c>
@@ -3080,7 +3104,7 @@
       <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="27" t="s">
         <v>50</v>
       </c>
@@ -3095,7 +3119,7 @@
       <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -3112,7 +3136,7 @@
       <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="27" t="s">
         <v>53</v>
       </c>
@@ -3127,7 +3151,7 @@
       <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27" t="s">
         <v>54</v>
       </c>
@@ -3142,7 +3166,7 @@
       <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="27" t="s">
         <v>55</v>
       </c>
@@ -3157,7 +3181,7 @@
       <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="27" t="s">
         <v>56</v>
       </c>
@@ -3172,7 +3196,7 @@
       <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="27" t="s">
         <v>57</v>
       </c>
@@ -3184,11 +3208,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
     </row>
@@ -3196,7 +3220,7 @@
       <c r="A14" s="25">
         <v>10</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="57" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -3213,7 +3237,7 @@
       <c r="A15" s="25">
         <v>11</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="27" t="s">
         <v>61</v>
       </c>
@@ -3228,7 +3252,7 @@
       <c r="A16" s="25">
         <v>12</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="27" t="s">
         <v>62</v>
       </c>
@@ -3243,7 +3267,7 @@
       <c r="A17" s="25">
         <v>13</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="27" t="s">
         <v>63</v>
       </c>
@@ -3258,7 +3282,7 @@
       <c r="A18" s="25">
         <v>14</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -3275,7 +3299,7 @@
       <c r="A19" s="25">
         <v>15</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27" t="s">
         <v>66</v>
       </c>
@@ -3290,7 +3314,7 @@
       <c r="A20" s="25">
         <v>16</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="27" t="s">
         <v>67</v>
       </c>
@@ -3305,7 +3329,7 @@
       <c r="A21" s="25">
         <v>17</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="27" t="s">
         <v>68</v>
       </c>
@@ -3317,11 +3341,11 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
     </row>
@@ -3329,7 +3353,7 @@
       <c r="A23" s="25">
         <v>18</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="57" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -3346,7 +3370,7 @@
       <c r="A24" s="25">
         <v>19</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
@@ -3361,8 +3385,8 @@
       <c r="A25" s="25">
         <v>20</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="28">
@@ -3374,8 +3398,8 @@
       <c r="A26" s="25">
         <v>21</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="28">
         <v>42678</v>
       </c>
@@ -3385,8 +3409,8 @@
       <c r="A27" s="25">
         <v>22</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="28">
         <v>42678</v>
       </c>
@@ -3396,8 +3420,8 @@
       <c r="A28" s="25">
         <v>23</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="28">
         <v>42678</v>
       </c>
@@ -3407,7 +3431,7 @@
       <c r="A29" s="25">
         <v>24</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27" t="s">
         <v>74</v>
       </c>
@@ -3422,7 +3446,7 @@
       <c r="A30" s="25">
         <v>25</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="27" t="s">
         <v>75</v>
       </c>
@@ -3437,7 +3461,7 @@
       <c r="A31" s="25">
         <v>26</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="57" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -3454,7 +3478,7 @@
       <c r="A32" s="25">
         <v>27</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="27" t="s">
         <v>78</v>
       </c>
@@ -3469,7 +3493,7 @@
       <c r="A33" s="25">
         <v>28</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="27" t="s">
         <v>79</v>
       </c>
@@ -3484,7 +3508,7 @@
       <c r="A34" s="25">
         <v>29</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27" t="s">
         <v>80</v>
       </c>
@@ -3497,19 +3521,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C25:C28"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3543,11 +3567,11 @@
       <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="34" t="s">
         <v>81</v>
       </c>
@@ -3559,7 +3583,7 @@
       <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="67" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -3572,7 +3596,7 @@
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="36" t="s">
         <v>5</v>
       </c>
@@ -3583,7 +3607,7 @@
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="36" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3618,7 @@
       <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3607,7 +3631,7 @@
       <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="38" t="s">
         <v>9</v>
       </c>
@@ -3618,7 +3642,7 @@
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="67" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="36" t="s">
@@ -3633,7 +3657,7 @@
       <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
@@ -3646,7 +3670,7 @@
       <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="36" t="s">
         <v>14</v>
       </c>
@@ -3659,7 +3683,7 @@
       <c r="A11" s="37">
         <v>9</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -3674,7 +3698,7 @@
       <c r="A12" s="37">
         <v>10</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="38" t="s">
         <v>18</v>
       </c>
@@ -3687,7 +3711,7 @@
       <c r="A13" s="37">
         <v>11</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="38" t="s">
         <v>19</v>
       </c>
@@ -3700,7 +3724,7 @@
       <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="39" t="s">
         <v>20</v>
       </c>
@@ -3713,7 +3737,7 @@
       <c r="A15" s="37">
         <v>13</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="38" t="s">
         <v>21</v>
       </c>
@@ -3726,7 +3750,7 @@
       <c r="A16" s="37">
         <v>14</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="38" t="s">
         <v>22</v>
       </c>
@@ -3739,7 +3763,7 @@
       <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="38" t="s">
         <v>23</v>
       </c>
@@ -3752,7 +3776,7 @@
       <c r="A18" s="37">
         <v>16</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="39" t="s">
         <v>24</v>
       </c>
@@ -3765,7 +3789,7 @@
       <c r="A19" s="37">
         <v>17</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="39" t="s">
         <v>85</v>
       </c>
@@ -3778,7 +3802,7 @@
       <c r="A20" s="35">
         <v>18</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -3793,7 +3817,7 @@
       <c r="A21" s="35">
         <v>19</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="36" t="s">
         <v>29</v>
       </c>
@@ -3806,7 +3830,7 @@
       <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="36" t="s">
         <v>30</v>
       </c>
@@ -3819,7 +3843,7 @@
       <c r="A23" s="37">
         <v>21</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="64" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="38" t="s">
@@ -3834,7 +3858,7 @@
       <c r="A24" s="37">
         <v>22</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="38" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3871,7 @@
       <c r="A25" s="37">
         <v>23</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="38" t="s">
         <v>35</v>
       </c>
@@ -3860,7 +3884,7 @@
       <c r="A26" s="37">
         <v>24</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="38" t="s">
         <v>36</v>
       </c>
